--- a/2.6 bar.xlsx
+++ b/2.6 bar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8fb00dc8ed84c692/Documents/Utrecht University/Energy in Built/6.2 Photovoltaic (PV) systems^J irradiance and PV performance evaluation/utrechtsmartdistricpartA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{898291EB-C550-4DD1-8339-9B8575B87473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FBCDD70-0F07-47E4-AB23-E42E18352CC2}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{898291EB-C550-4DD1-8339-9B8575B87473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B6F7479-DDFD-493A-8385-4222BF6B06F5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{906C2131-16F5-4377-B379-51255DB42FB5}"/>
   </bookViews>
@@ -443,7 +443,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -477,74 +477,74 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2">
-        <v>780.1228000000001</v>
+        <v>1196.71</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
-        <v>806.93600000000004</v>
+        <v>780.1228000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>509.3227</v>
+        <v>806.93600000000004</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>1139.2090000000001</v>
+        <v>509.3227</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2">
-        <v>719.66800000000001</v>
+        <v>1149.307</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2">
-        <v>796.21510000000001</v>
+        <v>1139.2090000000001</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2">
-        <v>1086.027</v>
+        <v>719.66800000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>1196.71</v>
+        <v>796.21510000000001</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>1149.307</v>
+        <v>1086.027</v>
       </c>
     </row>
   </sheetData>
